--- a/Country_data/yr_data.xlsx
+++ b/Country_data/yr_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/salaubol_msu_edu/Documents/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/salaubol_msu_edu/Documents/Research/Fert_x_Conflict/Country_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4702C770-263F-41CE-9F34-76909CBFC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBB125AA-845D-4154-A384-E487B6A0AC3F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{4702C770-263F-41CE-9F34-76909CBFC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292F2770-709D-465A-B677-F56C02380898}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{B90CA367-754D-445D-9450-D4552AEA3BFB}"/>
+    <workbookView xWindow="6690" yWindow="2166" windowWidth="17280" windowHeight="8994" xr2:uid="{B90CA367-754D-445D-9450-D4552AEA3BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="21">
   <si>
     <t>Country</t>
   </si>
@@ -83,6 +83,12 @@
   <si>
     <t>Urea</t>
   </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
 </sst>
 </file>
 
@@ -134,6 +140,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294A03C-DB21-4CD5-8615-44C8ACAEDACC}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2374,7 +2384,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -2385,7 +2395,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -2394,6 +2404,188 @@
       </c>
       <c r="C162">
         <v>2023</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163">
+        <v>2010</v>
+      </c>
+      <c r="D163">
+        <v>37.119999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164">
+        <v>2011</v>
+      </c>
+      <c r="D164">
+        <v>42.95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165">
+        <v>2012</v>
+      </c>
+      <c r="D165">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166">
+        <v>2013</v>
+      </c>
+      <c r="D166">
+        <v>47.71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167">
+        <v>2014</v>
+      </c>
+      <c r="D167">
+        <v>42.05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168">
+        <v>2015</v>
+      </c>
+      <c r="D168">
+        <v>37.630000000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169">
+        <v>2016</v>
+      </c>
+      <c r="D169">
+        <v>29.73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170">
+        <v>2017</v>
+      </c>
+      <c r="D170">
+        <v>27.02</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171">
+        <v>2018</v>
+      </c>
+      <c r="D171">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172">
+        <v>2019</v>
+      </c>
+      <c r="D172">
+        <v>28.22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173">
+        <v>2020</v>
+      </c>
+      <c r="D173">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C175">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C176">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C177">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C178">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C179">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C180">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C181">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C182">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C183">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C184">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/Country_data/yr_data.xlsx
+++ b/Country_data/yr_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/salaubol_msu_edu/Documents/Research/Fert_x_Conflict/Country_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{4702C770-263F-41CE-9F34-76909CBFC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292F2770-709D-465A-B677-F56C02380898}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{4702C770-263F-41CE-9F34-76909CBFC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F19EE7-52F5-4E1F-912D-8EC5F90842D4}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="2166" windowWidth="17280" windowHeight="8994" xr2:uid="{B90CA367-754D-445D-9450-D4552AEA3BFB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{B90CA367-754D-445D-9450-D4552AEA3BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -89,15 +89,25 @@
   <si>
     <t>Tanzania</t>
   </si>
+  <si>
+    <t>Namibia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,8 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,6 +155,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -443,11 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294A03C-DB21-4CD5-8615-44C8ACAEDACC}">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1501,7 +1517,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1528,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1539,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1572,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1583,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1594,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1605,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1616,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -1611,7 +1627,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1638,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1649,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -1643,8 +1659,9 @@
       <c r="C93">
         <v>2010</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -1654,8 +1671,9 @@
       <c r="C94">
         <v>2011</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -1665,8 +1683,9 @@
       <c r="C95">
         <v>2012</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -1676,8 +1695,9 @@
       <c r="C96">
         <v>2013</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -1687,8 +1707,9 @@
       <c r="C97">
         <v>2014</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1698,8 +1719,9 @@
       <c r="C98">
         <v>2015</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1709,8 +1731,9 @@
       <c r="C99">
         <v>2016</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1720,8 +1743,9 @@
       <c r="C100">
         <v>2017</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1731,8 +1755,9 @@
       <c r="C101">
         <v>2018</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1742,8 +1767,9 @@
       <c r="C102">
         <v>2019</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -1753,41 +1779,42 @@
       <c r="C103">
         <v>2020</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
       </c>
       <c r="C104">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
       </c>
       <c r="C105">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
       </c>
       <c r="C106">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -1795,10 +1822,10 @@
         <v>18</v>
       </c>
       <c r="C107">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -1806,10 +1833,11 @@
         <v>18</v>
       </c>
       <c r="C108">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2014</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1817,10 +1845,11 @@
         <v>18</v>
       </c>
       <c r="C109">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2015</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1828,10 +1857,11 @@
         <v>18</v>
       </c>
       <c r="C110">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2016</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1839,10 +1869,11 @@
         <v>18</v>
       </c>
       <c r="C111">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2017</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -1850,10 +1881,11 @@
         <v>18</v>
       </c>
       <c r="C112">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2018</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -1861,10 +1893,10 @@
         <v>18</v>
       </c>
       <c r="C113">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -1872,76 +1904,80 @@
         <v>18</v>
       </c>
       <c r="C114">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
       </c>
       <c r="C115">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2010</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
         <v>18</v>
       </c>
       <c r="C116">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2011</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
       </c>
       <c r="C117">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2012</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
         <v>18</v>
       </c>
       <c r="C118">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2013</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
         <v>18</v>
       </c>
       <c r="C119">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
       </c>
       <c r="C120">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -1949,10 +1985,10 @@
         <v>18</v>
       </c>
       <c r="C121">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -1960,10 +1996,10 @@
         <v>18</v>
       </c>
       <c r="C122">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -1971,10 +2007,10 @@
         <v>18</v>
       </c>
       <c r="C123">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -1982,10 +2018,10 @@
         <v>18</v>
       </c>
       <c r="C124">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -1993,10 +2029,10 @@
         <v>18</v>
       </c>
       <c r="C125">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2004,10 +2040,13 @@
         <v>18</v>
       </c>
       <c r="C126">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2021</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2015,10 +2054,10 @@
         <v>18</v>
       </c>
       <c r="C127">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -2026,79 +2065,76 @@
         <v>18</v>
       </c>
       <c r="C128">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
       </c>
       <c r="C129">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
         <v>18</v>
       </c>
       <c r="C130">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
         <v>18</v>
       </c>
       <c r="C131">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
         <v>18</v>
       </c>
       <c r="C132">
-        <v>2021</v>
-      </c>
-      <c r="D132" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
         <v>18</v>
       </c>
       <c r="C133">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
       </c>
       <c r="C134">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -2106,10 +2142,10 @@
         <v>18</v>
       </c>
       <c r="C135">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -2117,10 +2153,10 @@
         <v>18</v>
       </c>
       <c r="C136">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -2128,10 +2164,10 @@
         <v>18</v>
       </c>
       <c r="C137">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -2139,10 +2175,10 @@
         <v>18</v>
       </c>
       <c r="C138">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -2150,10 +2186,10 @@
         <v>18</v>
       </c>
       <c r="C139">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -2161,10 +2197,10 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -2172,10 +2208,10 @@
         <v>18</v>
       </c>
       <c r="C141">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -2183,76 +2219,76 @@
         <v>18</v>
       </c>
       <c r="C142">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
       </c>
       <c r="C143">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B144" t="s">
         <v>18</v>
       </c>
       <c r="C144">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B145" t="s">
         <v>18</v>
       </c>
       <c r="C145">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B146" t="s">
         <v>18</v>
       </c>
       <c r="C146">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B147" t="s">
         <v>18</v>
       </c>
       <c r="C147">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B148" t="s">
         <v>18</v>
       </c>
       <c r="C148">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -2260,10 +2296,10 @@
         <v>18</v>
       </c>
       <c r="C149">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -2271,10 +2307,10 @@
         <v>18</v>
       </c>
       <c r="C150">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -2282,10 +2318,10 @@
         <v>18</v>
       </c>
       <c r="C151">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -2293,10 +2329,10 @@
         <v>18</v>
       </c>
       <c r="C152">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -2304,10 +2340,10 @@
         <v>18</v>
       </c>
       <c r="C153">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -2315,10 +2351,10 @@
         <v>18</v>
       </c>
       <c r="C154">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -2326,10 +2362,10 @@
         <v>18</v>
       </c>
       <c r="C155">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -2337,87 +2373,87 @@
         <v>18</v>
       </c>
       <c r="C156">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
         <v>18</v>
       </c>
       <c r="C157">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2010</v>
+      </c>
+      <c r="D157">
+        <v>37.119999999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>17</v>
-      </c>
-      <c r="B158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2011</v>
+      </c>
+      <c r="D158">
+        <v>42.95</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>17</v>
-      </c>
-      <c r="B159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C159">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2012</v>
+      </c>
+      <c r="D159">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>17</v>
-      </c>
-      <c r="B160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C160">
-        <v>2021</v>
+        <v>2013</v>
+      </c>
+      <c r="D160">
+        <v>47.71</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>17</v>
-      </c>
-      <c r="B161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C161">
-        <v>2022</v>
+        <v>2014</v>
+      </c>
+      <c r="D161">
+        <v>42.05</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>17</v>
-      </c>
-      <c r="B162" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C162">
-        <v>2023</v>
+        <v>2015</v>
+      </c>
+      <c r="D162">
+        <v>37.630000000000003</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>19</v>
       </c>
-      <c r="B163" t="s">
-        <v>18</v>
-      </c>
       <c r="C163">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D163">
-        <v>37.119999999999997</v>
+        <v>29.73</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2425,10 +2461,10 @@
         <v>19</v>
       </c>
       <c r="C164">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D164">
-        <v>42.95</v>
+        <v>27.02</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2436,10 +2472,10 @@
         <v>19</v>
       </c>
       <c r="C165">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D165">
-        <v>47.22</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2447,10 +2483,10 @@
         <v>19</v>
       </c>
       <c r="C166">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D166">
-        <v>47.71</v>
+        <v>28.22</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2458,76 +2494,58 @@
         <v>19</v>
       </c>
       <c r="C167">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D167">
-        <v>42.05</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C168">
-        <v>2015</v>
-      </c>
-      <c r="D168">
-        <v>37.630000000000003</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C169">
-        <v>2016</v>
-      </c>
-      <c r="D169">
-        <v>29.73</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C170">
-        <v>2017</v>
-      </c>
-      <c r="D170">
-        <v>27.02</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C171">
-        <v>2018</v>
-      </c>
-      <c r="D171">
-        <v>28.65</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C172">
-        <v>2019</v>
-      </c>
-      <c r="D172">
-        <v>28.22</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C173">
-        <v>2020</v>
-      </c>
-      <c r="D173">
-        <v>26.1</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2535,57 +2553,83 @@
         <v>20</v>
       </c>
       <c r="C174">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
       <c r="C175">
-        <v>2011</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
       <c r="C176">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
+        <v>20</v>
+      </c>
       <c r="C177">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
+        <v>20</v>
+      </c>
       <c r="C178">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
       <c r="C179">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2017</v>
+      </c>
+      <c r="D179" s="1">
+        <v>24.501330286951163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
       <c r="C180">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2018</v>
+      </c>
+      <c r="D180" s="1">
+        <v>25.772611498666024</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
       <c r="C181">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2019</v>
+      </c>
+      <c r="D181" s="1">
+        <v>25.918700756191882</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
       <c r="C182">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C183">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C184">
         <v>2020</v>
+      </c>
+      <c r="D182" s="1">
+        <v>21.778694491628244</v>
       </c>
     </row>
   </sheetData>
